--- a/vnstocks_data/DBC_infor.xlsx
+++ b/vnstocks_data/DBC_infor.xlsx
@@ -1019,10 +1019,10 @@
         <v>36.1</v>
       </c>
       <c r="M2" t="n">
-        <v>75</v>
+        <v>60.1</v>
       </c>
       <c r="N2" t="n">
-        <v>1.1</v>
+        <v>2.9</v>
       </c>
       <c r="O2" t="n">
         <v>0.8</v>
@@ -1088,7 +1088,7 @@
         <v>53</v>
       </c>
       <c r="AJ2" t="n">
-        <v>54.14</v>
+        <v>105.33</v>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
@@ -1096,10 +1096,10 @@
         </is>
       </c>
       <c r="AL2" t="n">
-        <v>28.15</v>
+        <v>27.8</v>
       </c>
       <c r="AM2" t="n">
-        <v>38.6</v>
+        <v>36.8</v>
       </c>
       <c r="AN2" t="n">
         <v>4.24</v>
@@ -1133,16 +1133,16 @@
         </is>
       </c>
       <c r="AW2" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="BA2" t="inlineStr"/>
       <c r="BB2" t="inlineStr">
@@ -1161,23 +1161,23 @@
         </is>
       </c>
       <c r="BI2" t="n">
-        <v>-9.050000000000001</v>
+        <v>-10.18</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-3.94</v>
+        <v>-5.14</v>
       </c>
       <c r="BK2" t="inlineStr"/>
       <c r="BL2" t="n">
-        <v>-0.88</v>
+        <v>-2.11</v>
       </c>
       <c r="BM2" t="n">
-        <v>-3.94</v>
+        <v>-5.14</v>
       </c>
       <c r="BN2" t="n">
-        <v>13.78</v>
+        <v>12.37</v>
       </c>
       <c r="BO2" t="n">
-        <v>99.54000000000001</v>
+        <v>97.06</v>
       </c>
       <c r="BP2" t="inlineStr">
         <is>
@@ -1209,16 +1209,16 @@
         <v>600</v>
       </c>
       <c r="BY2" t="n">
-        <v>-13</v>
+        <v>-14.1</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-9.9</v>
+        <v>-11.1</v>
       </c>
       <c r="CA2" t="n">
-        <v>47.5</v>
+        <v>45.6</v>
       </c>
       <c r="CB2" t="n">
-        <v>2456.3</v>
+        <v>2424.6</v>
       </c>
       <c r="CC2" t="inlineStr">
         <is>
@@ -1227,19 +1227,19 @@
       </c>
       <c r="CD2" t="inlineStr"/>
       <c r="CE2" t="n">
-        <v>-0.88</v>
+        <v>-2.11</v>
       </c>
       <c r="CF2" t="n">
-        <v>9107.200000000001</v>
+        <v>9124.799999999999</v>
       </c>
       <c r="CG2" t="n">
-        <v>10509.9</v>
+        <v>10518.7</v>
       </c>
       <c r="CH2" t="n">
-        <v>12166.5</v>
+        <v>12171</v>
       </c>
       <c r="CI2" t="n">
-        <v>11356.2</v>
+        <v>11358</v>
       </c>
       <c r="CJ2" t="n">
         <v>27.8</v>
@@ -1287,16 +1287,16 @@
         <v>4070</v>
       </c>
       <c r="DA2" t="n">
-        <v>10.8</v>
+        <v>9.5</v>
       </c>
       <c r="DB2" t="n">
-        <v>-6.3</v>
+        <v>-7.4</v>
       </c>
       <c r="DC2" t="n">
-        <v>-3.7</v>
+        <v>-4.8</v>
       </c>
       <c r="DD2" t="n">
-        <v>5.6</v>
+        <v>4.3</v>
       </c>
     </row>
   </sheetData>

--- a/vnstocks_data/DBC_infor.xlsx
+++ b/vnstocks_data/DBC_infor.xlsx
@@ -1016,16 +1016,16 @@
         <v>1.2</v>
       </c>
       <c r="L2" t="n">
-        <v>36.1</v>
+        <v>39.5</v>
       </c>
       <c r="M2" t="n">
-        <v>60.1</v>
+        <v>34</v>
       </c>
       <c r="N2" t="n">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="O2" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="P2" t="n">
         <v>7</v>
@@ -1088,7 +1088,7 @@
         <v>53</v>
       </c>
       <c r="AJ2" t="n">
-        <v>105.33</v>
+        <v>111.38</v>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
@@ -1096,10 +1096,10 @@
         </is>
       </c>
       <c r="AL2" t="n">
-        <v>27.8</v>
+        <v>27.95</v>
       </c>
       <c r="AM2" t="n">
-        <v>36.8</v>
+        <v>37.5</v>
       </c>
       <c r="AN2" t="n">
         <v>4.24</v>
@@ -1136,7 +1136,7 @@
         <v>0.4</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AY2" t="n">
         <v>0.3</v>
@@ -1161,23 +1161,23 @@
         </is>
       </c>
       <c r="BI2" t="n">
-        <v>-10.18</v>
+        <v>-9.69</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-5.14</v>
+        <v>-4.63</v>
       </c>
       <c r="BK2" t="inlineStr"/>
       <c r="BL2" t="n">
-        <v>-2.11</v>
+        <v>-1.58</v>
       </c>
       <c r="BM2" t="n">
-        <v>-5.14</v>
+        <v>-4.63</v>
       </c>
       <c r="BN2" t="n">
-        <v>12.37</v>
+        <v>12.97</v>
       </c>
       <c r="BO2" t="n">
-        <v>97.06</v>
+        <v>98.13</v>
       </c>
       <c r="BP2" t="inlineStr">
         <is>
@@ -1209,16 +1209,16 @@
         <v>600</v>
       </c>
       <c r="BY2" t="n">
-        <v>-14.1</v>
+        <v>-13.6</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-11.1</v>
+        <v>-10.6</v>
       </c>
       <c r="CA2" t="n">
-        <v>45.6</v>
+        <v>46.4</v>
       </c>
       <c r="CB2" t="n">
-        <v>2424.6</v>
+        <v>2438.2</v>
       </c>
       <c r="CC2" t="inlineStr">
         <is>
@@ -1227,19 +1227,19 @@
       </c>
       <c r="CD2" t="inlineStr"/>
       <c r="CE2" t="n">
-        <v>-2.11</v>
+        <v>-1.58</v>
       </c>
       <c r="CF2" t="n">
-        <v>9124.799999999999</v>
+        <v>9112.1</v>
       </c>
       <c r="CG2" t="n">
-        <v>10518.7</v>
+        <v>10512.3</v>
       </c>
       <c r="CH2" t="n">
-        <v>12171</v>
+        <v>12167.8</v>
       </c>
       <c r="CI2" t="n">
-        <v>11358</v>
+        <v>11356.7</v>
       </c>
       <c r="CJ2" t="n">
         <v>27.8</v>
@@ -1287,16 +1287,16 @@
         <v>4070</v>
       </c>
       <c r="DA2" t="n">
-        <v>9.5</v>
+        <v>10.1</v>
       </c>
       <c r="DB2" t="n">
-        <v>-7.4</v>
+        <v>-6.9</v>
       </c>
       <c r="DC2" t="n">
-        <v>-4.8</v>
+        <v>-4.3</v>
       </c>
       <c r="DD2" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
     </row>
   </sheetData>

--- a/vnstocks_data/DBC_infor.xlsx
+++ b/vnstocks_data/DBC_infor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DD2"/>
+  <dimension ref="A1:DE2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,485 +491,490 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>uptrend</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>active_buy_pct</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>strong_buy_pct</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>high_vol_match</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>forecast_vol_ratio</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>pe</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>pb</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>ev_ebitda</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>dividend_yield</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>price_vs_sma5</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>price_vs_sma20</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>revenue_growth_1y</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>revenue_growth_5y</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>eps_growth_1y</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>eps_growth_5y</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>gross_margin</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>net_margin</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>doe</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>avg_trading_value_5d</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>avg_trading_value_10d</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>avg_trading_value_20d</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>relative_strength_3d</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>rel_strength_1m</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>rel_strength_3m</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>rel_strength_1y</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>total_trading_value</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>foreign_transaction</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>price_near_realtime</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>rsi14</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>foreign_vol_pct</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>tc_rs</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>tcbs_recommend</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>tcbs_buy_sell_signal</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>foreign_buysell_20s</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>num_increase_continuous_day</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>num_decrease_continuous_day</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>eps</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>macd_histogram</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>vol_vs_sma5</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>vol_vs_sma10</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>vol_vs_sma20</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>vol_vs_sma50</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>price_vs_sma10</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>price_vs_sma50</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>price_break_out52_week</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>price_wash_out52_week</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>sar_vs_macd_hist</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>bolling_band_signal</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>dmi_signal</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>rsi14_status</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>price_growth_1w</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>price_growth_1m</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>breakout</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>prev_1d_growth_pct</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>prev_1m_growth_pct</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>prev_1y_growth_pct</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>prev_5y_growth_pct</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>has_financial_report</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>free_transfer_rate</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>net_cash_per_market_cap</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
         <is>
           <t>net_cash_per_total_assets</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>profit_last_4q</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>last_quarter_revenue_growth</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
         <is>
           <t>second_quarter_revenue_growth</t>
         </is>
       </c>
-      <c r="BW1" s="1" t="inlineStr">
+      <c r="BX1" s="1" t="inlineStr">
         <is>
           <t>last_quarter_profit_growth</t>
         </is>
       </c>
-      <c r="BX1" s="1" t="inlineStr">
+      <c r="BY1" s="1" t="inlineStr">
         <is>
           <t>second_quarter_profit_growth</t>
         </is>
       </c>
-      <c r="BY1" s="1" t="inlineStr">
+      <c r="BZ1" s="1" t="inlineStr">
         <is>
           <t>pct_1y_from_peak</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>pct_away_from_hist_peak</t>
         </is>
       </c>
-      <c r="CA1" s="1" t="inlineStr">
+      <c r="CB1" s="1" t="inlineStr">
         <is>
           <t>pct_1y_from_bottom</t>
         </is>
       </c>
-      <c r="CB1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
         <is>
           <t>pct_off_hist_bottom</t>
         </is>
       </c>
-      <c r="CC1" s="1" t="inlineStr">
+      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>price_vs_sma100</t>
         </is>
       </c>
-      <c r="CD1" s="1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>heating_up</t>
         </is>
       </c>
-      <c r="CE1" s="1" t="inlineStr">
+      <c r="CF1" s="1" t="inlineStr">
         <is>
           <t>price_growth1_day</t>
         </is>
       </c>
-      <c r="CF1" s="1" t="inlineStr">
+      <c r="CG1" s="1" t="inlineStr">
         <is>
           <t>vsma5</t>
         </is>
       </c>
-      <c r="CG1" s="1" t="inlineStr">
+      <c r="CH1" s="1" t="inlineStr">
         <is>
           <t>vsma10</t>
         </is>
       </c>
-      <c r="CH1" s="1" t="inlineStr">
+      <c r="CI1" s="1" t="inlineStr">
         <is>
           <t>vsma20</t>
         </is>
       </c>
-      <c r="CI1" s="1" t="inlineStr">
+      <c r="CJ1" s="1" t="inlineStr">
         <is>
           <t>vsma50</t>
         </is>
       </c>
-      <c r="CJ1" s="1" t="inlineStr">
+      <c r="CK1" s="1" t="inlineStr">
         <is>
           <t>corporate_percentage</t>
         </is>
       </c>
-      <c r="CK1" s="1" t="inlineStr">
+      <c r="CL1" s="1" t="inlineStr">
         <is>
           <t>ev</t>
         </is>
       </c>
-      <c r="CL1" s="1" t="inlineStr">
+      <c r="CM1" s="1" t="inlineStr">
         <is>
           <t>quarter_revenue_growth</t>
         </is>
       </c>
-      <c r="CM1" s="1" t="inlineStr">
+      <c r="CN1" s="1" t="inlineStr">
         <is>
           <t>quarter_income_growth</t>
         </is>
       </c>
-      <c r="CN1" s="1" t="inlineStr">
+      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>peg_forward</t>
         </is>
       </c>
-      <c r="CO1" s="1" t="inlineStr">
+      <c r="CP1" s="1" t="inlineStr">
         <is>
           <t>peg_trailing</t>
         </is>
       </c>
-      <c r="CP1" s="1" t="inlineStr">
+      <c r="CQ1" s="1" t="inlineStr">
         <is>
           <t>quarterly_income</t>
         </is>
       </c>
-      <c r="CQ1" s="1" t="inlineStr">
+      <c r="CR1" s="1" t="inlineStr">
         <is>
           <t>quarterly_revenue</t>
         </is>
       </c>
-      <c r="CR1" s="1" t="inlineStr">
+      <c r="CS1" s="1" t="inlineStr">
         <is>
           <t>ps</t>
         </is>
       </c>
-      <c r="CS1" s="1" t="inlineStr">
+      <c r="CT1" s="1" t="inlineStr">
         <is>
           <t>roa</t>
         </is>
       </c>
-      <c r="CT1" s="1" t="inlineStr">
+      <c r="CU1" s="1" t="inlineStr">
         <is>
           <t>npl</t>
         </is>
       </c>
-      <c r="CU1" s="1" t="inlineStr">
+      <c r="CV1" s="1" t="inlineStr">
         <is>
           <t>nim</t>
         </is>
       </c>
-      <c r="CV1" s="1" t="inlineStr">
+      <c r="CW1" s="1" t="inlineStr">
         <is>
           <t>price_vs_sma200</t>
         </is>
       </c>
-      <c r="CW1" s="1" t="inlineStr">
+      <c r="CX1" s="1" t="inlineStr">
         <is>
           <t>eps_ttm_growth1_year</t>
         </is>
       </c>
-      <c r="CX1" s="1" t="inlineStr">
+      <c r="CY1" s="1" t="inlineStr">
         <is>
           <t>eps_ttm_growth5_year</t>
         </is>
       </c>
-      <c r="CY1" s="1" t="inlineStr">
+      <c r="CZ1" s="1" t="inlineStr">
         <is>
           <t>equity_mi</t>
         </is>
       </c>
-      <c r="CZ1" s="1" t="inlineStr">
+      <c r="DA1" s="1" t="inlineStr">
         <is>
           <t>eps_recently</t>
         </is>
       </c>
-      <c r="DA1" s="1" t="inlineStr">
+      <c r="DB1" s="1" t="inlineStr">
         <is>
           <t>percent_price_vs_ma200</t>
         </is>
       </c>
-      <c r="DB1" s="1" t="inlineStr">
+      <c r="DC1" s="1" t="inlineStr">
         <is>
           <t>percent_price_vs_ma20</t>
         </is>
       </c>
-      <c r="DC1" s="1" t="inlineStr">
+      <c r="DD1" s="1" t="inlineStr">
         <is>
           <t>percent_price_vs_ma50</t>
         </is>
       </c>
-      <c r="DD1" s="1" t="inlineStr">
+      <c r="DE1" s="1" t="inlineStr">
         <is>
           <t>percent_price_vs_ma100</t>
         </is>
@@ -1015,288 +1020,289 @@
       <c r="K2" t="n">
         <v>1.2</v>
       </c>
-      <c r="L2" t="n">
-        <v>39.5</v>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
-        <v>34</v>
+        <v>38.6</v>
       </c>
       <c r="N2" t="n">
-        <v>1.6</v>
+        <v>77.3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="P2" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Q2" t="n">
         <v>7</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>1.4</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>6.2</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>0</v>
       </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr">
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr">
         <is>
           <t>Giá nằm dưới SMA(20)</t>
         </is>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>22.17</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>13.56</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Y2" t="n">
         <v>2975.45</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Z2" t="n">
         <v>-5.47</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AA2" t="n">
         <v>21.6</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AB2" t="n">
         <v>13.27</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AC2" t="n">
         <v>0.7</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AD2" t="n">
         <v>363.74</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AE2" t="n">
         <v>357.33</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AF2" t="n">
         <v>423.74</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AG2" t="n">
         <v>4</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AH2" t="n">
         <v>20</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AI2" t="n">
         <v>62</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AJ2" t="n">
         <v>53</v>
       </c>
-      <c r="AJ2" t="n">
-        <v>111.38</v>
-      </c>
-      <c r="AK2" t="inlineStr">
+      <c r="AK2" t="n">
+        <v>157.49</v>
+      </c>
+      <c r="AL2" t="inlineStr">
         <is>
           <t>Mua &lt; Bán</t>
         </is>
       </c>
-      <c r="AL2" t="n">
-        <v>27.95</v>
-      </c>
       <c r="AM2" t="n">
-        <v>37.5</v>
+        <v>27.65</v>
       </c>
       <c r="AN2" t="n">
+        <v>36</v>
+      </c>
+      <c r="AO2" t="n">
         <v>4.24</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AP2" t="n">
         <v>35</v>
       </c>
-      <c r="AP2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>Chờ bán</t>
         </is>
       </c>
-      <c r="AQ2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>Bán</t>
         </is>
       </c>
-      <c r="AR2" t="n">
+      <c r="AS2" t="n">
         <v>-6976</v>
       </c>
-      <c r="AS2" t="inlineStr"/>
-      <c r="AT2" t="n">
+      <c r="AT2" t="inlineStr"/>
+      <c r="AU2" t="n">
         <v>4</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AV2" t="n">
         <v>4070</v>
       </c>
-      <c r="AV2" t="inlineStr">
+      <c r="AW2" t="inlineStr">
         <is>
           <t>MACD Histogram &lt; 0 và giảm dần</t>
         </is>
       </c>
-      <c r="AW2" t="n">
-        <v>0.4</v>
-      </c>
       <c r="AX2" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="BA2" t="inlineStr"/>
-      <c r="BB2" t="inlineStr">
+        <v>0.5</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BB2" t="inlineStr"/>
+      <c r="BC2" t="inlineStr">
         <is>
           <t>Giá nằm dưới SMA(50)</t>
         </is>
       </c>
-      <c r="BC2" t="inlineStr"/>
       <c r="BD2" t="inlineStr"/>
       <c r="BE2" t="inlineStr"/>
       <c r="BF2" t="inlineStr"/>
       <c r="BG2" t="inlineStr"/>
-      <c r="BH2" t="inlineStr">
+      <c r="BH2" t="inlineStr"/>
+      <c r="BI2" t="inlineStr">
         <is>
           <t>Trung tính</t>
         </is>
       </c>
-      <c r="BI2" t="n">
-        <v>-9.69</v>
-      </c>
       <c r="BJ2" t="n">
-        <v>-4.63</v>
-      </c>
-      <c r="BK2" t="inlineStr"/>
-      <c r="BL2" t="n">
-        <v>-1.58</v>
-      </c>
+        <v>-10.66</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>-5.65</v>
+      </c>
+      <c r="BL2" t="inlineStr"/>
       <c r="BM2" t="n">
-        <v>-4.63</v>
+        <v>-2.64</v>
       </c>
       <c r="BN2" t="n">
-        <v>12.97</v>
+        <v>-5.65</v>
       </c>
       <c r="BO2" t="n">
-        <v>98.13</v>
-      </c>
-      <c r="BP2" t="inlineStr">
+        <v>11.76</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>96</v>
+      </c>
+      <c r="BQ2" t="inlineStr">
         <is>
           <t>Có</t>
         </is>
       </c>
-      <c r="BQ2" t="n">
+      <c r="BR2" t="n">
         <v>65</v>
       </c>
-      <c r="BR2" t="n">
+      <c r="BS2" t="n">
         <v>-41.9</v>
       </c>
-      <c r="BS2" t="n">
+      <c r="BT2" t="n">
         <v>-31.4</v>
       </c>
-      <c r="BT2" t="n">
+      <c r="BU2" t="n">
         <v>1566.3</v>
       </c>
-      <c r="BU2" t="n">
+      <c r="BV2" t="n">
         <v>20</v>
       </c>
-      <c r="BV2" t="n">
+      <c r="BW2" t="n">
         <v>11</v>
       </c>
-      <c r="BW2" t="n">
+      <c r="BX2" t="n">
         <v>248.6</v>
       </c>
-      <c r="BX2" t="n">
+      <c r="BY2" t="n">
         <v>600</v>
       </c>
-      <c r="BY2" t="n">
-        <v>-13.6</v>
-      </c>
       <c r="BZ2" t="n">
-        <v>-10.6</v>
+        <v>-14.5</v>
       </c>
       <c r="CA2" t="n">
-        <v>46.4</v>
+        <v>-11.6</v>
       </c>
       <c r="CB2" t="n">
-        <v>2438.2</v>
-      </c>
-      <c r="CC2" t="inlineStr">
+        <v>44.9</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>2410.9</v>
+      </c>
+      <c r="CD2" t="inlineStr">
         <is>
           <t>Giá nằm trên SMA(100)</t>
         </is>
       </c>
-      <c r="CD2" t="inlineStr"/>
-      <c r="CE2" t="n">
-        <v>-1.58</v>
-      </c>
+      <c r="CE2" t="inlineStr"/>
       <c r="CF2" t="n">
-        <v>9112.1</v>
+        <v>-2.64</v>
       </c>
       <c r="CG2" t="n">
-        <v>10512.3</v>
+        <v>9118.4</v>
       </c>
       <c r="CH2" t="n">
-        <v>12167.8</v>
+        <v>10515.5</v>
       </c>
       <c r="CI2" t="n">
-        <v>11356.7</v>
+        <v>12169.4</v>
       </c>
       <c r="CJ2" t="n">
+        <v>11357.4</v>
+      </c>
+      <c r="CK2" t="n">
         <v>27.8</v>
       </c>
-      <c r="CK2" t="n">
+      <c r="CL2" t="n">
         <v>16</v>
       </c>
-      <c r="CL2" t="n">
+      <c r="CM2" t="n">
         <v>5.8</v>
       </c>
-      <c r="CM2" t="n">
+      <c r="CN2" t="n">
         <v>-0.3</v>
       </c>
-      <c r="CN2" t="n">
+      <c r="CO2" t="n">
         <v>0.1</v>
       </c>
-      <c r="CO2" t="n">
+      <c r="CP2" t="n">
         <v>0</v>
       </c>
-      <c r="CP2" t="n">
+      <c r="CQ2" t="n">
         <v>507</v>
       </c>
-      <c r="CQ2" t="n">
+      <c r="CR2" t="n">
         <v>3820</v>
       </c>
-      <c r="CR2" t="n">
+      <c r="CS2" t="n">
         <v>0.8</v>
       </c>
-      <c r="CS2" t="n">
+      <c r="CT2" t="n">
         <v>11.2</v>
       </c>
-      <c r="CT2" t="inlineStr"/>
       <c r="CU2" t="inlineStr"/>
       <c r="CV2" t="inlineStr"/>
-      <c r="CW2" t="n">
+      <c r="CW2" t="inlineStr"/>
+      <c r="CX2" t="n">
         <v>560.99</v>
       </c>
-      <c r="CX2" t="n">
+      <c r="CY2" t="n">
         <v>-4.16</v>
       </c>
-      <c r="CY2" t="n">
+      <c r="CZ2" t="n">
         <v>7576</v>
       </c>
-      <c r="CZ2" t="n">
+      <c r="DA2" t="n">
         <v>4070</v>
       </c>
-      <c r="DA2" t="n">
-        <v>10.1</v>
-      </c>
       <c r="DB2" t="n">
-        <v>-6.9</v>
+        <v>8.9</v>
       </c>
       <c r="DC2" t="n">
-        <v>-4.3</v>
+        <v>-7.9</v>
       </c>
       <c r="DD2" t="n">
-        <v>4.8</v>
+        <v>-5.3</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>3.7</v>
       </c>
     </row>
   </sheetData>

--- a/vnstocks_data/DBC_infor.xlsx
+++ b/vnstocks_data/DBC_infor.xlsx
@@ -1022,16 +1022,16 @@
       </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
-        <v>38.6</v>
+        <v>39.5</v>
       </c>
       <c r="N2" t="n">
-        <v>77.3</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="O2" t="n">
-        <v>2.2</v>
+        <v>0.1</v>
       </c>
       <c r="P2" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="Q2" t="n">
         <v>7</v>
@@ -1094,7 +1094,7 @@
         <v>53</v>
       </c>
       <c r="AK2" t="n">
-        <v>157.49</v>
+        <v>173.61</v>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
         </is>
       </c>
       <c r="AM2" t="n">
-        <v>27.65</v>
+        <v>27.85</v>
       </c>
       <c r="AN2" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AO2" t="n">
         <v>4.24</v>
@@ -1139,10 +1139,10 @@
         </is>
       </c>
       <c r="AX2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AY2" t="n">
         <v>0.6</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>0.5</v>
       </c>
       <c r="AZ2" t="n">
         <v>0.5</v>
@@ -1167,23 +1167,23 @@
         </is>
       </c>
       <c r="BJ2" t="n">
-        <v>-10.66</v>
+        <v>-10.02</v>
       </c>
       <c r="BK2" t="n">
-        <v>-5.65</v>
+        <v>-4.97</v>
       </c>
       <c r="BL2" t="inlineStr"/>
       <c r="BM2" t="n">
-        <v>-2.64</v>
+        <v>-1.94</v>
       </c>
       <c r="BN2" t="n">
-        <v>-5.65</v>
+        <v>-4.97</v>
       </c>
       <c r="BO2" t="n">
-        <v>11.76</v>
+        <v>12.57</v>
       </c>
       <c r="BP2" t="n">
-        <v>96</v>
+        <v>97.42</v>
       </c>
       <c r="BQ2" t="inlineStr">
         <is>
@@ -1215,16 +1215,16 @@
         <v>600</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-14.5</v>
+        <v>-13.9</v>
       </c>
       <c r="CA2" t="n">
-        <v>-11.6</v>
+        <v>-10.9</v>
       </c>
       <c r="CB2" t="n">
-        <v>44.9</v>
+        <v>45.9</v>
       </c>
       <c r="CC2" t="n">
-        <v>2410.9</v>
+        <v>2429.1</v>
       </c>
       <c r="CD2" t="inlineStr">
         <is>
@@ -1233,19 +1233,19 @@
       </c>
       <c r="CE2" t="inlineStr"/>
       <c r="CF2" t="n">
-        <v>-2.64</v>
+        <v>-1.94</v>
       </c>
       <c r="CG2" t="n">
-        <v>9118.4</v>
+        <v>9097.4</v>
       </c>
       <c r="CH2" t="n">
-        <v>10515.5</v>
+        <v>10505</v>
       </c>
       <c r="CI2" t="n">
-        <v>12169.4</v>
+        <v>12164.1</v>
       </c>
       <c r="CJ2" t="n">
-        <v>11357.4</v>
+        <v>11355.3</v>
       </c>
       <c r="CK2" t="n">
         <v>27.8</v>
@@ -1293,16 +1293,16 @@
         <v>4070</v>
       </c>
       <c r="DB2" t="n">
-        <v>8.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="DC2" t="n">
-        <v>-7.9</v>
+        <v>-7.2</v>
       </c>
       <c r="DD2" t="n">
-        <v>-5.3</v>
+        <v>-4.7</v>
       </c>
       <c r="DE2" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
     </row>
   </sheetData>
